--- a/listUser.xlsx
+++ b/listUser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn_CN\Online-Quiz-System-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Quiz-System-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A752DFB8-C36E-4D00-8BCD-83DC4CA16994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FF6667-597C-45F7-B931-3E793036F39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>user1</t>
   </si>
   <si>
-    <t>user1.example.com</t>
-  </si>
-  <si>
     <t>user2</t>
   </si>
   <si>
@@ -67,38 +64,41 @@
     <t>user10</t>
   </si>
   <si>
-    <t>user2.example.com</t>
-  </si>
-  <si>
-    <t>user3.example.com</t>
-  </si>
-  <si>
-    <t>user4.example.com</t>
-  </si>
-  <si>
-    <t>user5.example.com</t>
-  </si>
-  <si>
-    <t>user6.example.com</t>
-  </si>
-  <si>
-    <t>user7.example.com</t>
-  </si>
-  <si>
-    <t>user8.example.com</t>
-  </si>
-  <si>
-    <t>user9.example.com</t>
-  </si>
-  <si>
-    <t>user10.example.com</t>
+    <t>user10@example.com</t>
+  </si>
+  <si>
+    <t>user9@example.com</t>
+  </si>
+  <si>
+    <t>user1@example.com</t>
+  </si>
+  <si>
+    <t>user2@example.com</t>
+  </si>
+  <si>
+    <t>user3@example.com</t>
+  </si>
+  <si>
+    <t>user4@example.com</t>
+  </si>
+  <si>
+    <t>user5@example.com</t>
+  </si>
+  <si>
+    <t>user6@example.com</t>
+  </si>
+  <si>
+    <t>user7@example.com</t>
+  </si>
+  <si>
+    <t>user8@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,8 +158,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -176,11 +185,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,7 +497,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -531,136 +541,136 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -848,6 +858,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7AD89116-77B7-4563-91E2-24D995A24A1A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{409FD95A-A87F-4F6D-9542-FEA4A52BD826}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{2DC8B565-1645-4F5C-8F28-15865A9A7BAE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E69473E0-80A1-46BD-8ECA-EF2297DCCF4F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{3E5D9879-E540-498D-89FB-FCAD09A44A9F}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{75C8D8C3-6AE7-4E81-A0A0-F6A4ABE371D7}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B19358B3-D9CD-4713-B016-FB8CCB31E686}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{C542B2AD-7DB0-4099-A698-A8AC6E062277}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{AB34D808-F205-4608-9118-39A53E39B947}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{6FC7A2DC-7820-4BE2-9794-ADC1BEBB8E36}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>